--- a/data/pca/factorExposure/factorExposure_2013-02-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-05.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0007421836134924357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001837974091796215</v>
+      </c>
+      <c r="C2">
+        <v>-0.03204740161401873</v>
+      </c>
+      <c r="D2">
+        <v>-0.005330830228000588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0007276599779137198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006294506357409472</v>
+      </c>
+      <c r="C4">
+        <v>-0.08479678288534662</v>
+      </c>
+      <c r="D4">
+        <v>-0.07870896531951731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001302546120724409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01411509450398506</v>
+      </c>
+      <c r="C6">
+        <v>-0.1138076875122907</v>
+      </c>
+      <c r="D6">
+        <v>-0.03237528651022325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001649857073822048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005012444902504538</v>
+      </c>
+      <c r="C7">
+        <v>-0.05766417052964945</v>
+      </c>
+      <c r="D7">
+        <v>-0.03614194089361491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007234651361719088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005817355036168435</v>
+      </c>
+      <c r="C8">
+        <v>-0.03820617033104638</v>
+      </c>
+      <c r="D8">
+        <v>-0.0458909434504103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003570821613647861</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.00440114138996353</v>
+      </c>
+      <c r="C9">
+        <v>-0.07068796379289674</v>
+      </c>
+      <c r="D9">
+        <v>-0.0711451488733023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002864352386078361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.00545799055840358</v>
+      </c>
+      <c r="C10">
+        <v>-0.05709474207454281</v>
+      </c>
+      <c r="D10">
+        <v>0.1974402237465857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002707320823904215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005785428345153353</v>
+      </c>
+      <c r="C11">
+        <v>-0.08066222698395704</v>
+      </c>
+      <c r="D11">
+        <v>-0.06052917627245073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004133314089355284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004070806043778884</v>
+      </c>
+      <c r="C12">
+        <v>-0.06412102175899463</v>
+      </c>
+      <c r="D12">
+        <v>-0.04745607990649743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002641037864784639</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008663309141385722</v>
+      </c>
+      <c r="C13">
+        <v>-0.06594521164048568</v>
+      </c>
+      <c r="D13">
+        <v>-0.06315233901100184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001192264610487082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001614778961178273</v>
+      </c>
+      <c r="C14">
+        <v>-0.04659174525812718</v>
+      </c>
+      <c r="D14">
+        <v>-0.006825246169307927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007999381131923156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006062792068839861</v>
+      </c>
+      <c r="C15">
+        <v>-0.04286712727812777</v>
+      </c>
+      <c r="D15">
+        <v>-0.0274219465905521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001092829234843676</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005094098699341726</v>
+      </c>
+      <c r="C16">
+        <v>-0.06574014516391211</v>
+      </c>
+      <c r="D16">
+        <v>-0.04679579446295019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.00083141382471296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008894801077613411</v>
+      </c>
+      <c r="C20">
+        <v>-0.06584476925192032</v>
+      </c>
+      <c r="D20">
+        <v>-0.0438089001920159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005427855559401827</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.01002936955910476</v>
+      </c>
+      <c r="C21">
+        <v>-0.02199049079457067</v>
+      </c>
+      <c r="D21">
+        <v>-0.03721572068191634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01714738452895624</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006672158477773889</v>
+      </c>
+      <c r="C22">
+        <v>-0.0952177249017101</v>
+      </c>
+      <c r="D22">
+        <v>-0.1074389910274827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01745148576576361</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006489952829516203</v>
+      </c>
+      <c r="C23">
+        <v>-0.09601933704369299</v>
+      </c>
+      <c r="D23">
+        <v>-0.107545900443476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001407978346378334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005434528511167682</v>
+      </c>
+      <c r="C24">
+        <v>-0.07618896950320882</v>
+      </c>
+      <c r="D24">
+        <v>-0.06095999072651846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003932846083619953</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003016827629306592</v>
+      </c>
+      <c r="C25">
+        <v>-0.07820023627688186</v>
+      </c>
+      <c r="D25">
+        <v>-0.0663804543613679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005184117470415267</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003631309559440689</v>
+      </c>
+      <c r="C26">
+        <v>-0.04171152674855582</v>
+      </c>
+      <c r="D26">
+        <v>-0.02158043269855165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006444149927884692</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0009453752200962765</v>
+      </c>
+      <c r="C28">
+        <v>-0.1057108888994705</v>
+      </c>
+      <c r="D28">
+        <v>0.3156499130574089</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001361666023233884</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003234156115517222</v>
+      </c>
+      <c r="C29">
+        <v>-0.04978367330957601</v>
+      </c>
+      <c r="D29">
+        <v>-0.004899288159279864</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003477974289758341</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009559414848740285</v>
+      </c>
+      <c r="C30">
+        <v>-0.1430166656281583</v>
+      </c>
+      <c r="D30">
+        <v>-0.09294608495280617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001042146644808117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006255405784344413</v>
+      </c>
+      <c r="C31">
+        <v>-0.04518350247332976</v>
+      </c>
+      <c r="D31">
+        <v>-0.03021687089692768</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006998516697355166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004135362845903251</v>
+      </c>
+      <c r="C32">
+        <v>-0.04166629080243547</v>
+      </c>
+      <c r="D32">
+        <v>-0.01877984288704836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002580824432911896</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008367027500380387</v>
+      </c>
+      <c r="C33">
+        <v>-0.08630646014323683</v>
+      </c>
+      <c r="D33">
+        <v>-0.06830584857776803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004246397784317804</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003976468395712337</v>
+      </c>
+      <c r="C34">
+        <v>-0.05792722771135042</v>
+      </c>
+      <c r="D34">
+        <v>-0.05328227175584599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002082992200930822</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005057756667577487</v>
+      </c>
+      <c r="C35">
+        <v>-0.04008166002212153</v>
+      </c>
+      <c r="D35">
+        <v>-0.01737632921114032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004274025470300917</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001175993089785938</v>
+      </c>
+      <c r="C36">
+        <v>-0.02469858880691122</v>
+      </c>
+      <c r="D36">
+        <v>-0.02206134622861485</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002374716773356625</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009550380489086912</v>
+      </c>
+      <c r="C38">
+        <v>-0.03543034794000956</v>
+      </c>
+      <c r="D38">
+        <v>-0.01562521094567833</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01201510820153197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0005304636565894188</v>
+      </c>
+      <c r="C39">
+        <v>-0.1166205879308916</v>
+      </c>
+      <c r="D39">
+        <v>-0.07109234482449142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009667775815750564</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002574530796670652</v>
+      </c>
+      <c r="C40">
+        <v>-0.08834041644930352</v>
+      </c>
+      <c r="D40">
+        <v>-0.01770281453061131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001471305056369056</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007291425008331158</v>
+      </c>
+      <c r="C41">
+        <v>-0.03752123119779895</v>
+      </c>
+      <c r="D41">
+        <v>-0.03504640139811016</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003064045327290845</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003947158862689096</v>
+      </c>
+      <c r="C43">
+        <v>-0.0531438299856833</v>
+      </c>
+      <c r="D43">
+        <v>-0.02321803745671694</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00374200306666902</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003408112224198</v>
+      </c>
+      <c r="C44">
+        <v>-0.1100229928748677</v>
+      </c>
+      <c r="D44">
+        <v>-0.06915265996612054</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001126267017888942</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002294079383943255</v>
+      </c>
+      <c r="C46">
+        <v>-0.03371369267543808</v>
+      </c>
+      <c r="D46">
+        <v>-0.03362263338715321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0004201887091661073</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002680515039429977</v>
+      </c>
+      <c r="C47">
+        <v>-0.03727828458729551</v>
+      </c>
+      <c r="D47">
+        <v>-0.0225518223327653</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003388494329981158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006560535330450886</v>
+      </c>
+      <c r="C48">
+        <v>-0.02999085758674356</v>
+      </c>
+      <c r="D48">
+        <v>-0.03186110367293037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01243025678936581</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01529206046071945</v>
+      </c>
+      <c r="C49">
+        <v>-0.1828940124447225</v>
+      </c>
+      <c r="D49">
+        <v>-0.01199741886395083</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001622763794134873</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003638664584345045</v>
+      </c>
+      <c r="C50">
+        <v>-0.04418387216909374</v>
+      </c>
+      <c r="D50">
+        <v>-0.03364178902812381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0006838292366273269</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004456096758492532</v>
+      </c>
+      <c r="C51">
+        <v>-0.02674697987910344</v>
+      </c>
+      <c r="D51">
+        <v>-0.01822340773138327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0003095473936711959</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02081909137299037</v>
+      </c>
+      <c r="C53">
+        <v>-0.1684437287676885</v>
+      </c>
+      <c r="D53">
+        <v>-0.02910481994517892</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001270412815012929</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008729013823292917</v>
+      </c>
+      <c r="C54">
+        <v>-0.05553250075781337</v>
+      </c>
+      <c r="D54">
+        <v>-0.04276087691379989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004099747087392636</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009472574633583241</v>
+      </c>
+      <c r="C55">
+        <v>-0.1081262822403439</v>
+      </c>
+      <c r="D55">
+        <v>-0.04036120850306384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.00279139953404859</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02003299481293763</v>
+      </c>
+      <c r="C56">
+        <v>-0.1739006670337093</v>
+      </c>
+      <c r="D56">
+        <v>-0.02941084765182583</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007139933749195058</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01973779560082017</v>
+      </c>
+      <c r="C58">
+        <v>-0.1108929441264473</v>
+      </c>
+      <c r="D58">
+        <v>-0.05246264846521068</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.00696459220356816</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009863889570619622</v>
+      </c>
+      <c r="C59">
+        <v>-0.1614287231026962</v>
+      </c>
+      <c r="D59">
+        <v>0.3145587272975923</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004001083318151698</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02380305146848462</v>
+      </c>
+      <c r="C60">
+        <v>-0.2210346772198505</v>
+      </c>
+      <c r="D60">
+        <v>-0.03298296494872224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01358816432876723</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001650089967237349</v>
+      </c>
+      <c r="C61">
+        <v>-0.09600072828838681</v>
+      </c>
+      <c r="D61">
+        <v>-0.05760566855278822</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1640863228518963</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1446672898163339</v>
+      </c>
+      <c r="C62">
+        <v>-0.09109637004712109</v>
+      </c>
+      <c r="D62">
+        <v>-0.0457752029581238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001123895932828055</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006251567690661165</v>
+      </c>
+      <c r="C63">
+        <v>-0.05549252437514111</v>
+      </c>
+      <c r="D63">
+        <v>-0.02349542429650505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.001218872557337135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01543539387302602</v>
+      </c>
+      <c r="C64">
+        <v>-0.1059521462743604</v>
+      </c>
+      <c r="D64">
+        <v>-0.06054362630916911</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002275045141827419</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01791071239516202</v>
+      </c>
+      <c r="C65">
+        <v>-0.1231092574031881</v>
+      </c>
+      <c r="D65">
+        <v>-0.01738586157884828</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007952097995210338</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.013186980709706</v>
+      </c>
+      <c r="C66">
+        <v>-0.1605519163440722</v>
+      </c>
+      <c r="D66">
+        <v>-0.1141567181802589</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003603707183359701</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01571175067180517</v>
+      </c>
+      <c r="C67">
+        <v>-0.06622050823095968</v>
+      </c>
+      <c r="D67">
+        <v>-0.02527297540819578</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006866209560533067</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0006061160571031064</v>
+      </c>
+      <c r="C68">
+        <v>-0.08583363367231221</v>
+      </c>
+      <c r="D68">
+        <v>0.2562057352746193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002258906269364275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006162655368778915</v>
+      </c>
+      <c r="C69">
+        <v>-0.05070638223658147</v>
+      </c>
+      <c r="D69">
+        <v>-0.03760321712231923</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0004507461819826977</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001880859599489193</v>
+      </c>
+      <c r="C70">
+        <v>-0.003046626227083033</v>
+      </c>
+      <c r="D70">
+        <v>-0.002641014544658581</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0009701468713509995</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005890933200090779</v>
+      </c>
+      <c r="C71">
+        <v>-0.09627661406794781</v>
+      </c>
+      <c r="D71">
+        <v>0.306562133134018</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003718479574572478</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01610012647589037</v>
+      </c>
+      <c r="C72">
+        <v>-0.1530438293631821</v>
+      </c>
+      <c r="D72">
+        <v>-0.02135017816951211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01179700956346654</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03059587058926538</v>
+      </c>
+      <c r="C73">
+        <v>-0.2790227197859458</v>
+      </c>
+      <c r="D73">
+        <v>-0.04869739226333426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00454044350950971</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001921022345483774</v>
+      </c>
+      <c r="C74">
+        <v>-0.1048140219623157</v>
+      </c>
+      <c r="D74">
+        <v>-0.03577481026548497</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002626907446644977</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01096610168626004</v>
+      </c>
+      <c r="C75">
+        <v>-0.1258405406296051</v>
+      </c>
+      <c r="D75">
+        <v>-0.02288461829026035</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009616992653235606</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02177186711290423</v>
+      </c>
+      <c r="C76">
+        <v>-0.148861680503911</v>
+      </c>
+      <c r="D76">
+        <v>-0.0597711911974473</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0002366576296526179</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02386376021248519</v>
+      </c>
+      <c r="C77">
+        <v>-0.1292766823216628</v>
+      </c>
+      <c r="D77">
+        <v>-0.08682497397949714</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0005681470450036455</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01471754017361254</v>
+      </c>
+      <c r="C78">
+        <v>-0.0956104154503804</v>
+      </c>
+      <c r="D78">
+        <v>-0.07034256055749952</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02232305210203837</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03762875967142896</v>
+      </c>
+      <c r="C79">
+        <v>-0.1547060897941846</v>
+      </c>
+      <c r="D79">
+        <v>-0.03442651730480632</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006488945657290661</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01049875199110097</v>
+      </c>
+      <c r="C80">
+        <v>-0.04129794970046208</v>
+      </c>
+      <c r="D80">
+        <v>-0.02945303870114602</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001180761707394363</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.0154742040962232</v>
+      </c>
+      <c r="C81">
+        <v>-0.1274104364564613</v>
+      </c>
+      <c r="D81">
+        <v>-0.03962706782366138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.004929708485807069</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01979593537656399</v>
+      </c>
+      <c r="C82">
+        <v>-0.1410443590976282</v>
+      </c>
+      <c r="D82">
+        <v>-0.04198575651882147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008344216252123976</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01011170110007103</v>
+      </c>
+      <c r="C83">
+        <v>-0.05745688605694416</v>
+      </c>
+      <c r="D83">
+        <v>-0.05818074138088285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01339264022222274</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01169777205729782</v>
+      </c>
+      <c r="C84">
+        <v>-0.03670910663320742</v>
+      </c>
+      <c r="D84">
+        <v>0.0110078485764617</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0133290059835332</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.0281763487008657</v>
+      </c>
+      <c r="C85">
+        <v>-0.1244929868981532</v>
+      </c>
+      <c r="D85">
+        <v>-0.04384027669352664</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001859380323088969</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005950296168384816</v>
+      </c>
+      <c r="C86">
+        <v>-0.05013896162861623</v>
+      </c>
+      <c r="D86">
+        <v>-0.02065743824238106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003558674415510019</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01022257445149069</v>
+      </c>
+      <c r="C87">
+        <v>-0.1306988867294249</v>
+      </c>
+      <c r="D87">
+        <v>-0.07131604657117016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01190264742085316</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002774971476322366</v>
+      </c>
+      <c r="C88">
+        <v>-0.06719807106790285</v>
+      </c>
+      <c r="D88">
+        <v>-0.01368588137850289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01442247806129562</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001295115553507976</v>
+      </c>
+      <c r="C89">
+        <v>-0.1466705653395053</v>
+      </c>
+      <c r="D89">
+        <v>0.3426325948708578</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002808471846372328</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.00698809493088241</v>
+      </c>
+      <c r="C90">
+        <v>-0.1213014032402865</v>
+      </c>
+      <c r="D90">
+        <v>0.3234699156687403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006348731609035649</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01052372834377876</v>
+      </c>
+      <c r="C91">
+        <v>-0.1023650270680381</v>
+      </c>
+      <c r="D91">
+        <v>-0.01995084736419355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008360507270974985</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0009559979218065602</v>
+      </c>
+      <c r="C92">
+        <v>-0.1358773153487526</v>
+      </c>
+      <c r="D92">
+        <v>0.3290993690838509</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0006065618284614994</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004865073812960548</v>
+      </c>
+      <c r="C93">
+        <v>-0.10408294104346</v>
+      </c>
+      <c r="D93">
+        <v>0.3059484135178707</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.002968475410047625</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02263234050856847</v>
+      </c>
+      <c r="C94">
+        <v>-0.1479739454725577</v>
+      </c>
+      <c r="D94">
+        <v>-0.05022107500641083</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004311432535888941</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01649124801161828</v>
+      </c>
+      <c r="C95">
+        <v>-0.127587151704006</v>
+      </c>
+      <c r="D95">
+        <v>-0.05723116008721776</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0002195314836721092</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03598776586838707</v>
+      </c>
+      <c r="C97">
+        <v>-0.211561742293074</v>
+      </c>
+      <c r="D97">
+        <v>0.01189235604040264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004074292860146377</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03669557588250359</v>
+      </c>
+      <c r="C98">
+        <v>-0.2494472767772361</v>
+      </c>
+      <c r="D98">
+        <v>-0.04737807796395568</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9846815047568171</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9822156529489755</v>
+      </c>
+      <c r="C99">
+        <v>0.1163244542563981</v>
+      </c>
+      <c r="D99">
+        <v>0.02724704073771895</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001268630895374186</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.00327105055103425</v>
+      </c>
+      <c r="C101">
+        <v>-0.04997005214288047</v>
+      </c>
+      <c r="D101">
+        <v>-0.005007900619419053</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
